--- a/assets/Template/ActualValuesTemplate.xlsx
+++ b/assets/Template/ActualValuesTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masaki.kumamoto\OneDrive - UiPath\Documents\UiPath\00_DemoMaster\DocumentUnderstanding\DU_IntelligentFormExtractorPocPack\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/masaki_kumamoto_uipath_com/Documents/Documents/UiPath/DocumentUnderstandingEvaluation_demo/assets/Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0696AE-9E5C-4E34-A7F1-D2735D64D96F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{9B0696AE-9E5C-4E34-A7F1-D2735D64D96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8EBE504-F87C-42A8-BBD2-EF552D3E43CD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19560" yWindow="-15600" windowWidth="26925" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActualValues" sheetId="3" r:id="rId1"/>
@@ -34,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>FieldName</t>
   </si>
   <si>
-    <t>Actual</t>
+    <t>ActualValue</t>
+  </si>
+  <si>
+    <t>ActualPage</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762F8DB9-6B1F-40D1-B883-A557B3C25137}">
-  <dimension ref="B2:C2"/>
+  <dimension ref="B2:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -404,15 +407,19 @@
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
     <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
